--- a/Results Compilation.xlsx
+++ b/Results Compilation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinta/Desktop/Y4S1/FYP/fyp_port/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58257EEB-CEC0-944A-AA2E-3C3282F50CFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E52C7-D599-0D4C-87E2-93999C5B1E1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5C39977F-1AB7-5944-B602-5481B33B7B69}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Indexes</t>
   </si>
@@ -106,13 +107,25 @@
   </si>
   <si>
     <t>Stock % change=  -13.206324082239723</t>
+  </si>
+  <si>
+    <t>1. Use Visualistion</t>
+  </si>
+  <si>
+    <t>3. Compare with MACD</t>
+  </si>
+  <si>
+    <t>2. Portfolio - Look at Tony</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,14 +185,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -477,7 +490,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6210300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -609,7 +622,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5956300</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1118,13 +1131,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F5AB99-4BEE-F344-9917-373B63FFA082}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="19" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="85.5" style="1" customWidth="1"/>
@@ -1133,7 +1146,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,136 +1160,156 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="174" customHeight="1">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="174" customHeight="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+    <row r="4" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="174" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="174" customHeight="1">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3" t="s">
+    <row r="6" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="174" customHeight="1">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="174" customHeight="1">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
+    <row r="8" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="174" customHeight="1">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="174" customHeight="1">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
+    <row r="10" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="174" customHeight="1">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="174" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4" t="s">
+    <row r="12" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="174" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="174" customHeight="1">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+    <row r="14" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="174" customHeight="1">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="174" customHeight="1">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" spans="2:6" ht="174" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
